--- a/03.warehouse/09.conc.steel/01.conc/01.files/conc qtys vs wages per month.xlsx
+++ b/03.warehouse/09.conc.steel/01.conc/01.files/conc qtys vs wages per month.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\OneDrive - Rowad Modern Engineering\x004 Data Science\03.rme.db\00.repo\rme.db\03.warehouse\09.conc.steel\01.conc\01.files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rowadmodern-my.sharepoint.com/personal/omar_essam_rowad-rme_com/Documents/x004 Data Science/03.rme.db/00.repo/rme.db/03.warehouse/09.conc.steel/01.conc/01.files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{066721AE-AAC0-41F0-AA58-803B84BE3A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{066721AE-AAC0-41F0-AA58-803B84BE3A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB3A508D-D73E-431C-8A7B-A0FB11CC32AE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$76</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -334,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -357,6 +360,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,15 +674,15 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60:F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="3" hidden="1" customWidth="1"/>
-    <col min="3" max="5" width="17.5546875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="16.109375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="3" hidden="1" customWidth="1"/>
+    <col min="3" max="6" width="16.109375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -697,7 +706,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3">
@@ -720,7 +729,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="3">
@@ -743,7 +752,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3">
@@ -766,7 +775,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="3">
@@ -789,7 +798,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="3">
@@ -812,7 +821,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="3">
@@ -835,7 +844,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="3">
@@ -858,7 +867,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="3">
@@ -881,7 +890,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="3">
@@ -904,7 +913,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="3">
@@ -927,7 +936,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="3">
@@ -950,7 +959,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3">
@@ -973,7 +982,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="3">
@@ -996,7 +1005,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="3">
@@ -1019,7 +1028,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3">
@@ -1042,7 +1051,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3">
@@ -1065,7 +1074,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3">
@@ -1088,7 +1097,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="3">
@@ -1111,7 +1120,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3">
@@ -1134,7 +1143,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="3">
@@ -1157,7 +1166,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3">
@@ -1180,7 +1189,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="3">
@@ -1203,7 +1212,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="3">
@@ -1226,7 +1235,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="3">
@@ -1249,7 +1258,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="3">
@@ -1272,7 +1281,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="3">
@@ -1295,7 +1304,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="3">
@@ -1318,7 +1327,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="3">
@@ -1341,7 +1350,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3">
@@ -1364,7 +1373,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="3">
@@ -1387,7 +1396,7 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="3">
@@ -1410,7 +1419,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="3">
@@ -1433,7 +1442,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="3">
@@ -1444,7 +1453,7 @@
         <v>20060.25</v>
       </c>
       <c r="D34" s="5">
-        <f t="shared" ref="D34:D65" si="3">C34*$D$76</f>
+        <f t="shared" ref="D34:D64" si="3">C34*$D$76</f>
         <v>8701.5132170251491</v>
       </c>
       <c r="E34" s="5">
@@ -1456,7 +1465,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="3">
@@ -1479,7 +1488,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="3">
@@ -1502,7 +1511,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="3">
@@ -1525,7 +1534,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="3">
@@ -1548,7 +1557,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="3">
@@ -1571,7 +1580,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="9" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="3">
@@ -1594,7 +1603,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="9" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="3">
@@ -1617,7 +1626,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="9" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="3">
@@ -1640,7 +1649,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="9" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="3">
@@ -1663,7 +1672,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="9" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="3">
@@ -1686,7 +1695,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="9" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="3">
@@ -1709,7 +1718,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="9" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="3">
@@ -1732,7 +1741,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="9" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="3">
@@ -1755,7 +1764,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="3">
@@ -1778,7 +1787,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="9" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="3">
@@ -1801,7 +1810,7 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="9" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="3">
@@ -1824,7 +1833,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="9" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="3">
@@ -1847,7 +1856,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="9" t="s">
         <v>52</v>
       </c>
       <c r="B52" s="3">
@@ -1870,7 +1879,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="9" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="3">
@@ -1893,7 +1902,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="9" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="3">
@@ -1916,7 +1925,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="9" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="3">
@@ -1939,7 +1948,7 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="9" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="3">
@@ -1962,7 +1971,7 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="A57" s="9" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="3">
@@ -1985,7 +1994,7 @@
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="9" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="3">
@@ -2008,7 +2017,7 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="9" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="3">
@@ -2031,7 +2040,7 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" s="9" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="3">
@@ -2054,7 +2063,7 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="A61" s="9" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="3">
@@ -2077,7 +2086,7 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="A62" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B62" s="3">
@@ -2100,7 +2109,7 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="A63" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="3">
@@ -2123,7 +2132,7 @@
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="3">
@@ -2146,7 +2155,7 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="A65" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B65" s="3">
@@ -2169,7 +2178,7 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="A66" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B66" s="3">
@@ -2192,7 +2201,7 @@
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="A67" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B67" s="3">
@@ -2215,7 +2224,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="A68" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B68" s="3">
@@ -2238,7 +2247,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="3">
@@ -2261,7 +2270,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="A70" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="3">
@@ -2284,7 +2293,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="A71" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="3">
@@ -2313,7 +2322,7 @@
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="10" t="s">
         <v>74</v>
       </c>
       <c r="B74" s="3" t="s">
@@ -2325,7 +2334,7 @@
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="10" t="s">
         <v>75</v>
       </c>
       <c r="B75" s="3" t="s">
@@ -2340,7 +2349,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="10" t="s">
         <v>76</v>
       </c>
       <c r="B76" s="3" t="s">
@@ -2356,6 +2365,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F76" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>